--- a/project/VOC/추후데이터저장샘플.xlsx
+++ b/project/VOC/추후데이터저장샘플.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A's Lens is worse than B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I love A!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,15 +120,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A's sound is worse than B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub_Comp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b,c,d,e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니콘a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니콘b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소니1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소니1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,12 +294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,17 +322,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,180 +627,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.296875" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="H4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>